--- a/biology/Zoologie/Ischnothele_indicola/Ischnothele_indicola.xlsx
+++ b/biology/Zoologie/Ischnothele_indicola/Ischnothele_indicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ischnothele indicola également connue sous le nom d'araignées à toile dispersée est une espèce d'araignées mygalomorphes de la famille des Ischnothelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ischnothele indicola également connue sous le nom d'araignées à toile dispersée est une espèce d'araignées mygalomorphes de la famille des Ischnothelidae.
 Il a été décrit pour la première fois par Anton Ausserer en 1875
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Meghalaya en Inde[1],[2]. Elle se rencontre vers Shillong.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Meghalaya en Inde,. Elle se rencontre vers Shillong.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 20,00 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 20,00 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour Coyle, cette espèce n'appartient pas au genre Ischnothele mais aucune autre position systématique n'a été proposée[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour Coyle, cette espèce n'appartient pas au genre Ischnothele mais aucune autre position systématique n'a été proposée.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, l'Inde.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Tikader, 1969 : Studies on spider fauna of Khasi and Jaintia hills, Assam, India. Part III. Journal of the Assam Science Society, vol. 11, p. 154-163.</t>
         </is>
